--- a/Venue_Per_Hood.xlsx
+++ b/Venue_Per_Hood.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/419e6c8ee6dd4c48/Documents/GitHub/Data-Science-with-Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{545A2A64-4445-46D7-8514-F2AA71D3CA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79D4128A-3ADA-4376-BAF8-017369B60077}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -133,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,7 +162,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -180,156 +176,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91FD5C3A-E23D-41EC-9875-92200ED4CEA2}" name="Table1" displayName="Table1" ref="A1:B35" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:B35" xr:uid="{70B03815-ECE1-4E7A-B5F4-95D53A552351}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FD092E30-BED8-432B-8A12-57495D1354DB}" name="Neighborhood" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{813DDA7B-F19D-4885-B4D2-CD3C4B3D7315}" name="Count" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,27 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,24 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,301 +478,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
-        <v>87</v>
+      <c r="B35">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Venue_Per_Hood.xlsx
+++ b/Venue_Per_Hood.xlsx
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -634,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -650,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -666,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -698,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -722,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -738,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -762,7 +762,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Venue_Per_Hood.xlsx
+++ b/Venue_Per_Hood.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/419e6c8ee6dd4c48/Documents/GitHub/Data-Science-with-Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E272DCC097D9AECF00552B5D586C726F61B4E536" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52054006-7200-4FC6-96CC-0BB5F113CC6A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -127,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -162,9 +168,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -174,24 +178,219 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17AA76A6-4AE9-4F83-8210-69BBCCD4D1EC}" name="Table1" displayName="Table1" ref="A1:B35" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:B35" xr:uid="{353ABDAE-BCA9-42C7-80F4-47ED4AF71CF6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition descending="1" ref="B1:B35"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A7D4FAF1-A903-48DE-B82A-4D684B3A8289}" name="Neighborhood" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A9849905-16FD-477A-B293-7EE44604AC36}" name="Count" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +468,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +520,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,294 +713,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B20" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B27" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B31" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="B32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B33" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B34" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
         <v>26</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>